--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -25,51 +25,15 @@
     <t>Value2</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">aaaaa
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">• </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>aaaaaaaaaaaaa</t>
-    </r>
+    <t>● aaaaa
+● aaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -91,12 +55,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -125,7 +83,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -150,9 +108,6 @@
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -196,7 +151,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -147,7 +147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -135,8 +135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" customWidth="1"/>
-    <col min="2" max="2" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -147,7 +147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5">
+    <row r="2" spans="1:2" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
